--- a/HicomIOS/Master/Template/AnnualService-Template.xlsx
+++ b/HicomIOS/Master/Template/AnnualService-Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\HicomIOS\Master\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IM-Soft\_Ourdream\Hi-Com04_1\HicomIOS\Master\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAB618B-4278-40A6-B8F5-0B0414D2C0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -52,27 +53,30 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Remark</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -85,7 +89,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -145,11 +149,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -166,13 +170,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -193,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -268,6 +273,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -303,6 +325,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,34 +517,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2"/>
+    <col min="2" max="2" width="48.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="53.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="32.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="2" customWidth="1"/>
     <col min="6" max="8" width="26" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="32" style="4" customWidth="1"/>
-    <col min="13" max="16" width="23.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="25.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.375" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="32" style="8" customWidth="1"/>
+    <col min="13" max="16" width="23.875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="25.125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="25.375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="26.875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="24" customHeight="1">
+    <row r="1" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +578,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
